--- a/salarios_infojobs_2021.xlsx
+++ b/salarios_infojobs_2021.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemi/Library/CloudStorage/Dropbox/Mis proyectos/Bootcamp Ironhack/Data Analytics/Unit 3 - First Project/Informes InfoJobs/Tablas Excel InfoJobs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59094A2F-5495-D641-AFAB-DF758714E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22980" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salario vs Inflación" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="Salario por comunidad" sheetId="5" r:id="rId5"/>
     <sheet name="Fe de erratas" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -288,8 +294,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,13 +358,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,7 +410,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -430,6 +444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -464,9 +479,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,14 +655,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -680,7 +701,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -694,10 +715,10 @@
         <v>2.9</v>
       </c>
       <c r="E3">
-        <v>-4.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -714,7 +735,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -731,7 +752,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -748,7 +769,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -765,7 +786,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -776,13 +797,13 @@
         <v>0.7</v>
       </c>
       <c r="D8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E8">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -796,10 +817,10 @@
         <v>1.7</v>
       </c>
       <c r="E9">
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -807,16 +828,16 @@
         <v>24003</v>
       </c>
       <c r="C10">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -824,7 +845,7 @@
         <v>25173</v>
       </c>
       <c r="C11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D11">
         <v>-0.5</v>
@@ -833,7 +854,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -856,14 +877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -880,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -897,7 +918,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -914,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -931,7 +952,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -948,7 +969,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -965,7 +986,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -982,7 +1003,7 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1037,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1054,7 @@
         <v>-13.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1122,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1156,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1190,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1203,7 +1224,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1238,7 @@
         <v>-835</v>
       </c>
       <c r="E21">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1226,14 +1247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1261,7 +1282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1289,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1303,7 +1324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1317,7 +1338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1387,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1407,14 +1428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>53074</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>49715</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1458,7 +1479,7 @@
         <v>47156</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1469,7 +1490,7 @@
         <v>45665</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1480,7 +1501,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1491,7 +1512,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1502,7 +1523,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1513,7 +1534,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1524,7 +1545,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1535,7 +1556,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1546,7 +1567,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1557,7 +1578,7 @@
         <v>42595</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1568,7 +1589,7 @@
         <v>42387</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1579,7 +1600,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1596,14 +1617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1617,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1645,7 +1666,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1659,7 +1680,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1673,7 +1694,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1687,7 +1708,7 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1701,7 +1722,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1712,10 +1733,10 @@
         <v>22312</v>
       </c>
       <c r="D8">
-        <v>-2.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1729,7 +1750,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1743,7 +1764,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1757,7 +1778,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -1771,7 +1792,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1782,10 +1803,10 @@
         <v>22618</v>
       </c>
       <c r="D13">
-        <v>-2.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -1799,7 +1820,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1813,7 +1834,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -1827,7 +1848,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1841,7 +1862,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1852,10 +1873,10 @@
         <v>22248</v>
       </c>
       <c r="D18">
-        <v>-4.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1869,7 +1890,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1889,14 +1910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1934,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1927,10 +1948,10 @@
         <v>1264</v>
       </c>
       <c r="E2">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +1968,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1964,7 +1985,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +2002,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1995,10 +2016,10 @@
         <v>2421</v>
       </c>
       <c r="E6">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2015,7 +2036,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2029,10 +2050,10 @@
         <v>2183</v>
       </c>
       <c r="E8">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2049,7 +2070,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2087,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2100,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2117,7 +2138,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2151,7 +2172,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -2168,7 +2189,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2182,10 +2203,10 @@
         <v>845</v>
       </c>
       <c r="E17">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2202,7 +2223,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2219,7 +2240,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2236,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2253,7 +2274,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
